--- a/artifacts/test.xlsx
+++ b/artifacts/test.xlsx
@@ -1,53 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/abdelkarim_majdoub_capgemini_com/Documents/Desktop/Projects/RUCHE/gcino/artifacts/artifacts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_98E7EB7CD86998FF6F791437445A6E7DADE44658" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E925C75C-DF4D-4CD2-B00F-7E0D17386277}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+  <si>
+    <t>Bordereau de Commande</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>C5248377</t>
+  </si>
+  <si>
+    <t>Résistance V12.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>Résistance type xxx
+- taille 15 mm</t>
+  </si>
+  <si>
+    <t>Amazone</t>
+  </si>
+  <si>
+    <t>C0649556</t>
+  </si>
+  <si>
+    <t>Laptop HP Elite</t>
+  </si>
+  <si>
+    <t>250 €</t>
+  </si>
+  <si>
+    <t>- Chargeur Type C
+- Ecran 24"</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>C7482745</t>
+  </si>
+  <si>
+    <t>Cup Coffee</t>
+  </si>
+  <si>
+    <t>12 €</t>
+  </si>
+  <si>
+    <t>Rien</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>C8541783</t>
+  </si>
+  <si>
+    <t>Ecran DELL</t>
+  </si>
+  <si>
+    <t>C7510937</t>
+  </si>
+  <si>
+    <t>Apple watch 9</t>
+  </si>
+  <si>
+    <t>900 €</t>
+  </si>
+  <si>
+    <t>Apple Store</t>
+  </si>
+  <si>
+    <t>C1451052</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>1 €</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="24"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,96 +278,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -553,254 +608,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.42578125" customWidth="1" style="8" min="1" max="1"/>
-    <col width="18.5703125" customWidth="1" style="8" min="2" max="2"/>
-    <col width="69.28515625" customWidth="1" style="8" min="5" max="5"/>
-    <col width="96.85546875" customWidth="1" style="8" min="6" max="6"/>
+    <col min="1" max="1" width="11.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="96.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="8">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Bordereau de Commande</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="6" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="F2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" s="8">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="11" t="n"/>
-      <c r="E3" s="11" t="n"/>
-      <c r="F3" s="12" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C5248377</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Résistance V12.0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5 €</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Résistance type xxx
-- taille 15 mm</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Amazone</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C0649556</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Laptop HP Elite</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>250 €</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>- Chargeur Type C
-- Ecran 24"</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C7482745</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cup Coffee</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12 €</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Rien</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>BIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C8541783</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ecran DELL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C7510937</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Apple watch 9</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>900 €</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Apple watch 9</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Apple Store</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C1451052</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pen</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1 €</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
